--- a/KinjaData.xlsx
+++ b/KinjaData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>link/id</t>
   </si>
@@ -77,6 +77,435 @@
   </si>
   <si>
     <t>http://www.theroot.com/1798505117</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com/1798402535</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com/1798349242</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com/1798488175</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com/1798487237</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com/1798468422</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com/1798478802</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com/1798483815</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com/1798429243</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com/1798351446</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com/1798504073</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com/1798505293</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1798352480</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1798503131</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1798516611</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1798515729</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1798492395</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1798513907</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1797442040</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1798508633</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1798506257</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1798501683</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1798501314</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1798500596</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1798499450</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1798498685</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1794685494</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1788510428</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1787989765</t>
+  </si>
+  <si>
+    <t>http://deadspin.com/1787713229</t>
+  </si>
+  <si>
+    <t>http://gizmodo.com/1797351761</t>
+  </si>
+  <si>
+    <t>http://gizmodo.com/1798511909</t>
+  </si>
+  <si>
+    <t>http://io9.gizmodo.com/1798513275</t>
+  </si>
+  <si>
+    <t>http://gizmodo.com/1798511708</t>
+  </si>
+  <si>
+    <t>http://gizmodo.com/1798467780</t>
+  </si>
+  <si>
+    <t>http://gizmodo.com/1798502154</t>
+  </si>
+  <si>
+    <t>http://sploid.gizmodo.com/1798500913</t>
+  </si>
+  <si>
+    <t>http://gizmodo.com/1798499074</t>
+  </si>
+  <si>
+    <t>http://gizmodo.com/1798495171</t>
+  </si>
+  <si>
+    <t>http://gizmodo.com/1798465439</t>
+  </si>
+  <si>
+    <t>http://gizmodo.com/1798496015</t>
+  </si>
+  <si>
+    <t>http://sploid.gizmodo.com/1798494911</t>
+  </si>
+  <si>
+    <t>http://io9.gizmodo.com/1798160521</t>
+  </si>
+  <si>
+    <t>http://gizmodo.com/1797903825</t>
+  </si>
+  <si>
+    <t>http://gizmodo.com/1797759575</t>
+  </si>
+  <si>
+    <t>http://gizmodo.com/1797602126</t>
+  </si>
+  <si>
+    <t>http://jalopnik.com/1798390292</t>
+  </si>
+  <si>
+    <t>http://jalopnik.com/1798478078</t>
+  </si>
+  <si>
+    <t>http://jalopnik.com/1798517347</t>
+  </si>
+  <si>
+    <t>http://jalopnik.com/1798511620</t>
+  </si>
+  <si>
+    <t>http://jalopnik.com/1630054609</t>
+  </si>
+  <si>
+    <t>http://blackflag.jalopnik.com/1798473353</t>
+  </si>
+  <si>
+    <t>http://jalopnik.com/1798502940</t>
+  </si>
+  <si>
+    <t>http://truckyeah.jalopnik.com/1786377870</t>
+  </si>
+  <si>
+    <t>http://jalopnik.com/1781913664</t>
+  </si>
+  <si>
+    <t>http://jalopnik.com/1798371826</t>
+  </si>
+  <si>
+    <t>http://jalopnik.com/1798502143</t>
+  </si>
+  <si>
+    <t>http://jalopnik.com/1789466777</t>
+  </si>
+  <si>
+    <t>http://jalopnik.com/1794624965</t>
+  </si>
+  <si>
+    <t>http://jalopnik.com/1798496475</t>
+  </si>
+  <si>
+    <t>http://blackflag.jalopnik.com/1798496154</t>
+  </si>
+  <si>
+    <t>http://truckyeah.jalopnik.com/1795239182</t>
+  </si>
+  <si>
+    <t>http://thegarage.jalopnik.com/1794928925</t>
+  </si>
+  <si>
+    <t>http://jalopnik.com/1794875569</t>
+  </si>
+  <si>
+    <t>http://lanesplitter.jalopnik.com/1793804054</t>
+  </si>
+  <si>
+    <t>http://jezebel.com/1798358840</t>
+  </si>
+  <si>
+    <t>http://themuse.jezebel.com/1798493794</t>
+  </si>
+  <si>
+    <t>http://jezebel.com/1798516556</t>
+  </si>
+  <si>
+    <t>http://jezebel.com/1798516471</t>
+  </si>
+  <si>
+    <t>http://jezebel.com/1798515321</t>
+  </si>
+  <si>
+    <t>http://jezebel.com/1798511365</t>
+  </si>
+  <si>
+    <t>http://jezebel.com/1798508577</t>
+  </si>
+  <si>
+    <t>http://themuse.jezebel.com/1798506501</t>
+  </si>
+  <si>
+    <t>http://theslot.jezebel.com/1798505561</t>
+  </si>
+  <si>
+    <t>http://theslot.jezebel.com/1797839448</t>
+  </si>
+  <si>
+    <t>http://jezebel.com/1798503436</t>
+  </si>
+  <si>
+    <t>http://themuse.jezebel.com/1798499900</t>
+  </si>
+  <si>
+    <t>http://theslot.jezebel.com/1798497326</t>
+  </si>
+  <si>
+    <t>http://jezebel.com/1798494295</t>
+  </si>
+  <si>
+    <t>http://jezebel.com/1797243200</t>
+  </si>
+  <si>
+    <t>http://themuse.jezebel.com/1798221799</t>
+  </si>
+  <si>
+    <t>http://themuse.jezebel.com/1797524032</t>
+  </si>
+  <si>
+    <t>http://jezebel.com/1796897863</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1798503211</t>
+  </si>
+  <si>
+    <t>http://cosplay.kotaku.com/1798486546</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1797972866</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1798515928</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1798514750</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1798512010</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1798512245</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1798372092</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1798506126</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1798504600</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1796028360</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1798504527</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1798502026</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1795657485</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1795550235</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1795389476</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1795310527</t>
+  </si>
+  <si>
+    <t>http://kotaku.com/1798364299</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798493346</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798507422</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798514186</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798450230</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798510527</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798504858</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798509621</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798302672</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798503155</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798502201</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798500703</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798498763</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798493203</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798485852</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798433377</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798397644</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798308191</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1797973456</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798397033</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1798159720</t>
+  </si>
+  <si>
+    <t>http://splinternews.com/1797949600</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798469369</t>
+  </si>
+  <si>
+    <t>http://thegrapevine.theroot.com/1798496852</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798517297</t>
+  </si>
+  <si>
+    <t>http://thegrapevine.theroot.com/1798514649</t>
+  </si>
+  <si>
+    <t>http://verysmartbrothas.theroot.com/1798498204</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798509349</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798506587</t>
+  </si>
+  <si>
+    <t>http://thegrapevine.theroot.com/1798498984</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798493600</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798492705</t>
+  </si>
+  <si>
+    <t>http://thegrapevine.theroot.com/1798476204</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798475446</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798474021</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798460419</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798450709</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798448247</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798439010</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798437482</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798431719</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798411030</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798308647</t>
+  </si>
+  <si>
+    <t>http://www.theroot.com/1798308223</t>
   </si>
 </sst>
 </file>
@@ -444,7 +873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="F9" activeCellId="0" pane="topLeft" sqref="F9"/>
@@ -503,31 +932,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>332</v>
+        <v>64</v>
       </c>
       <c r="C2" t="n">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="F2" t="n">
-        <v>22.75438596491228</v>
+        <v>37.5</v>
       </c>
       <c r="G2" t="n">
-        <v>125.7017543859649</v>
+        <v>210.1818181818182</v>
       </c>
       <c r="H2" t="n">
-        <v>34.22689075630252</v>
+        <v>36.65714285714286</v>
       </c>
       <c r="I2" t="n">
-        <v>188.7563025210084</v>
+        <v>201.7714285714286</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -535,31 +964,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="C3" t="n">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F3" t="n">
-        <v>51.66666666666666</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>287.5416666666667</v>
+        <v>457.6666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>63.86046511627907</v>
+        <v>57.81967213114754</v>
       </c>
       <c r="I3" t="n">
-        <v>346.3953488372093</v>
+        <v>321.9672131147541</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -567,31 +996,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>336</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n">
-        <v>66.40277777777777</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>363.4166666666667</v>
+        <v>144.75</v>
       </c>
       <c r="H4" t="n">
-        <v>34.4622641509434</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>187.6792452830189</v>
+        <v>108.0833333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -599,31 +1028,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>838</v>
+        <v>64</v>
       </c>
       <c r="C5" t="n">
-        <v>448</v>
+        <v>57</v>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>413</v>
+        <v>37</v>
       </c>
       <c r="F5" t="n">
-        <v>66.42857142857143</v>
+        <v>34.8</v>
       </c>
       <c r="G5" t="n">
-        <v>372.9714285714286</v>
+        <v>201.3</v>
       </c>
       <c r="H5" t="n">
-        <v>49.87651331719128</v>
+        <v>16.32432432432432</v>
       </c>
       <c r="I5" t="n">
-        <v>283.4382566585957</v>
+        <v>94.86486486486487</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -631,28 +1060,28 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
+        <v>29</v>
+      </c>
+      <c r="C6" t="n">
         <v>27</v>
       </c>
-      <c r="C6" t="n">
-        <v>24</v>
-      </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>27.5</v>
+        <v>50.16666666666666</v>
       </c>
       <c r="G6" t="n">
-        <v>157.625</v>
+        <v>294.8333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>17.125</v>
+        <v>29.52380952380953</v>
       </c>
       <c r="I6" t="n">
-        <v>95.75</v>
+        <v>170.8095238095238</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -663,31 +1092,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>607</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>39.17699115044248</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>212.8672566371681</v>
+        <v>88.33333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>23.9126213592233</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>129.8155339805825</v>
+        <v>63</v>
       </c>
       <c r="J7" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -695,31 +1124,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>68.78846153846153</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>380.5961538461539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>39.89615384615384</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>218.1884615384615</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -727,28 +1156,28 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F9" t="n">
-        <v>29.92592592592593</v>
+        <v>29.875</v>
       </c>
       <c r="G9" t="n">
-        <v>159.8888888888889</v>
+        <v>159.875</v>
       </c>
       <c r="H9" t="n">
-        <v>27.37037037037037</v>
+        <v>23.64406779661017</v>
       </c>
       <c r="I9" t="n">
-        <v>142.8518518518518</v>
+        <v>129.4067796610169</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -759,28 +1188,28 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>57.875</v>
+        <v>16.5</v>
       </c>
       <c r="G10" t="n">
-        <v>320.5</v>
+        <v>89.05555555555556</v>
       </c>
       <c r="H10" t="n">
-        <v>42.8</v>
+        <v>10.30769230769231</v>
       </c>
       <c r="I10" t="n">
-        <v>235.68</v>
+        <v>57.84615384615385</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
@@ -791,28 +1220,28 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>21.88888888888889</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>129.3333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>44.66071428571428</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>250.6607142857143</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -823,31 +1252,4703 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17</v>
+      </c>
+      <c r="G12" t="n">
+        <v>95.25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="I12" t="n">
+        <v>123</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+      <c r="C13" t="n">
+        <v>23</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14.45454545454546</v>
+      </c>
+      <c r="G13" t="n">
+        <v>80.81818181818181</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11.41666666666667</v>
+      </c>
+      <c r="I13" t="n">
+        <v>66.75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15.83333333333333</v>
+      </c>
+      <c r="G14" t="n">
+        <v>88.83333333333333</v>
+      </c>
+      <c r="H14" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="I14" t="n">
+        <v>106.3333333333333</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>68</v>
+      </c>
+      <c r="C15" t="n">
+        <v>61</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23</v>
+      </c>
+      <c r="E15" t="n">
+        <v>38</v>
+      </c>
+      <c r="F15" t="n">
+        <v>102</v>
+      </c>
+      <c r="G15" t="n">
+        <v>557.695652173913</v>
+      </c>
+      <c r="H15" t="n">
+        <v>48.55263157894737</v>
+      </c>
+      <c r="I15" t="n">
+        <v>261</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>164</v>
+      </c>
+      <c r="C16" t="n">
+        <v>145</v>
+      </c>
+      <c r="D16" t="n">
+        <v>51</v>
+      </c>
+      <c r="E16" t="n">
+        <v>94</v>
+      </c>
+      <c r="F16" t="n">
+        <v>55.88235294117647</v>
+      </c>
+      <c r="G16" t="n">
+        <v>316.6666666666667</v>
+      </c>
+      <c r="H16" t="n">
+        <v>39.38297872340426</v>
+      </c>
+      <c r="I16" t="n">
+        <v>224.6702127659574</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>28</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>29.8125</v>
+      </c>
+      <c r="G17" t="n">
+        <v>160.625</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11.90909090909091</v>
+      </c>
+      <c r="I17" t="n">
+        <v>63.54545454545455</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="n">
+        <v>29</v>
+      </c>
+      <c r="C18" t="n">
+        <v>21</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>58</v>
+      </c>
+      <c r="G18" t="n">
+        <v>319.2857142857143</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30.07142857142857</v>
+      </c>
+      <c r="I18" t="n">
+        <v>163.4285714285714</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>766</v>
+      </c>
+      <c r="C19" t="n">
+        <v>677</v>
+      </c>
+      <c r="D19" t="n">
+        <v>163</v>
+      </c>
+      <c r="E19" t="n">
+        <v>514</v>
+      </c>
+      <c r="F19" t="n">
+        <v>54.66871165644172</v>
+      </c>
+      <c r="G19" t="n">
+        <v>305.0613496932515</v>
+      </c>
+      <c r="H19" t="n">
+        <v>32.49416342412452</v>
+      </c>
+      <c r="I19" t="n">
+        <v>180.2470817120623</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19</v>
+      </c>
+      <c r="G20" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+      <c r="I20" t="n">
+        <v>101</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="n">
+        <v>17</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="G22" t="n">
+        <v>113</v>
+      </c>
+      <c r="H22" t="n">
+        <v>24</v>
+      </c>
+      <c r="I22" t="n">
+        <v>136.1538461538462</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>201.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="n">
+        <v>88</v>
+      </c>
+      <c r="C24" t="n">
         <v>43</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D24" t="n">
+        <v>14</v>
+      </c>
+      <c r="E24" t="n">
+        <v>29</v>
+      </c>
+      <c r="F24" t="n">
+        <v>66.57142857142857</v>
+      </c>
+      <c r="G24" t="n">
+        <v>380.1428571428572</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55.93103448275862</v>
+      </c>
+      <c r="I24" t="n">
+        <v>314.9310344827586</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="n">
+        <v>52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>55.41666666666666</v>
+      </c>
+      <c r="G25" t="n">
+        <v>301.1666666666667</v>
+      </c>
+      <c r="H25" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>265.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="n">
+        <v>11</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="n">
+        <v>34</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="n">
+        <v>17</v>
+      </c>
+      <c r="G27" t="n">
+        <v>92.375</v>
+      </c>
+      <c r="H27" t="n">
+        <v>27.83333333333333</v>
+      </c>
+      <c r="I27" t="n">
+        <v>159.6666666666667</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="n">
+        <v>163</v>
+      </c>
+      <c r="C28" t="n">
+        <v>66</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13</v>
+      </c>
+      <c r="E28" t="n">
+        <v>53</v>
+      </c>
+      <c r="F28" t="n">
+        <v>31.53846153846154</v>
+      </c>
+      <c r="G28" t="n">
+        <v>179.4615384615385</v>
+      </c>
+      <c r="H28" t="n">
+        <v>33.37735849056604</v>
+      </c>
+      <c r="I28" t="n">
+        <v>184</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="n">
+      <c r="B29" t="n">
+        <v>29</v>
+      </c>
+      <c r="C29" t="n">
         <v>11</v>
       </c>
-      <c r="E12" t="n">
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>17.16666666666667</v>
+      </c>
+      <c r="G29" t="n">
+        <v>99.66666666666667</v>
+      </c>
+      <c r="H29" t="n">
+        <v>12</v>
+      </c>
+      <c r="I29" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="n">
+        <v>139</v>
+      </c>
+      <c r="C30" t="n">
+        <v>66</v>
+      </c>
+      <c r="D30" t="n">
+        <v>19</v>
+      </c>
+      <c r="E30" t="n">
+        <v>47</v>
+      </c>
+      <c r="F30" t="n">
+        <v>24.47368421052632</v>
+      </c>
+      <c r="G30" t="n">
+        <v>142.421052631579</v>
+      </c>
+      <c r="H30" t="n">
+        <v>22.93617021276596</v>
+      </c>
+      <c r="I30" t="n">
+        <v>129.6595744680851</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="n">
+        <v>45</v>
+      </c>
+      <c r="C31" t="n">
+        <v>14</v>
+      </c>
+      <c r="D31" t="n">
+        <v>11</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>31.81818181818182</v>
+      </c>
+      <c r="G31" t="n">
+        <v>186.1818181818182</v>
+      </c>
+      <c r="H31" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="I31" t="n">
+        <v>73</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="n">
+        <v>110</v>
+      </c>
+      <c r="C32" t="n">
+        <v>57</v>
+      </c>
+      <c r="D32" t="n">
+        <v>18</v>
+      </c>
+      <c r="E32" t="n">
+        <v>39</v>
+      </c>
+      <c r="F32" t="n">
+        <v>20.77777777777778</v>
+      </c>
+      <c r="G32" t="n">
+        <v>119.2777777777778</v>
+      </c>
+      <c r="H32" t="n">
+        <v>25.61538461538462</v>
+      </c>
+      <c r="I32" t="n">
+        <v>141.5641025641026</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="n">
+        <v>44</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>52.33333333333334</v>
+      </c>
+      <c r="G33" t="n">
+        <v>282.3333333333333</v>
+      </c>
+      <c r="H33" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="I33" t="n">
+        <v>387.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="n">
+        <v>25</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>42.66666666666666</v>
+      </c>
+      <c r="G34" t="n">
+        <v>225</v>
+      </c>
+      <c r="H34" t="n">
+        <v>95</v>
+      </c>
+      <c r="I34" t="n">
+        <v>500</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="n">
+        <v>104</v>
+      </c>
+      <c r="C35" t="n">
+        <v>51</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>42</v>
+      </c>
+      <c r="F35" t="n">
+        <v>32.77777777777778</v>
+      </c>
+      <c r="G35" t="n">
+        <v>183</v>
+      </c>
+      <c r="H35" t="n">
+        <v>37.88095238095238</v>
+      </c>
+      <c r="I35" t="n">
+        <v>217.1428571428571</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="n">
+        <v>88</v>
+      </c>
+      <c r="C36" t="n">
+        <v>49</v>
+      </c>
+      <c r="D36" t="n">
+        <v>20</v>
+      </c>
+      <c r="E36" t="n">
+        <v>29</v>
+      </c>
+      <c r="F36" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="G36" t="n">
+        <v>266.85</v>
+      </c>
+      <c r="H36" t="n">
+        <v>47.41379310344828</v>
+      </c>
+      <c r="I36" t="n">
+        <v>266.6551724137931</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="n">
+        <v>42</v>
+      </c>
+      <c r="C37" t="n">
+        <v>22</v>
+      </c>
+      <c r="D37" t="n">
+        <v>11</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11</v>
+      </c>
+      <c r="F37" t="n">
+        <v>13</v>
+      </c>
+      <c r="G37" t="n">
+        <v>74.81818181818181</v>
+      </c>
+      <c r="H37" t="n">
+        <v>16.54545454545455</v>
+      </c>
+      <c r="I37" t="n">
+        <v>88.09090909090909</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="n">
+        <v>44</v>
+      </c>
+      <c r="C38" t="n">
+        <v>22</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11</v>
+      </c>
+      <c r="E38" t="n">
+        <v>11</v>
+      </c>
+      <c r="F38" t="n">
+        <v>26.45454545454545</v>
+      </c>
+      <c r="G38" t="n">
+        <v>140.9090909090909</v>
+      </c>
+      <c r="H38" t="n">
+        <v>18.90909090909091</v>
+      </c>
+      <c r="I38" t="n">
+        <v>109.4545454545455</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>13</v>
+      </c>
+      <c r="G39" t="n">
+        <v>63</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="n">
+        <v>151</v>
+      </c>
+      <c r="C40" t="n">
+        <v>57</v>
+      </c>
+      <c r="D40" t="n">
+        <v>24</v>
+      </c>
+      <c r="E40" t="n">
+        <v>33</v>
+      </c>
+      <c r="F40" t="n">
+        <v>26.29166666666667</v>
+      </c>
+      <c r="G40" t="n">
+        <v>143.8333333333333</v>
+      </c>
+      <c r="H40" t="n">
+        <v>19.27272727272727</v>
+      </c>
+      <c r="I40" t="n">
+        <v>104.7878787878788</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="n">
+        <v>151</v>
+      </c>
+      <c r="C41" t="n">
+        <v>87</v>
+      </c>
+      <c r="D41" t="n">
+        <v>44</v>
+      </c>
+      <c r="E41" t="n">
+        <v>43</v>
+      </c>
+      <c r="F41" t="n">
+        <v>22.93181818181818</v>
+      </c>
+      <c r="G41" t="n">
+        <v>121.7727272727273</v>
+      </c>
+      <c r="H41" t="n">
+        <v>13.2093023255814</v>
+      </c>
+      <c r="I41" t="n">
+        <v>71.65116279069767</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="n">
+        <v>39</v>
+      </c>
+      <c r="C42" t="n">
+        <v>17</v>
+      </c>
+      <c r="D42" t="n">
+        <v>11</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6</v>
+      </c>
+      <c r="F42" t="n">
+        <v>26.63636363636364</v>
+      </c>
+      <c r="G42" t="n">
+        <v>148.5454545454545</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>57.83333333333334</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="n">
+        <v>588</v>
+      </c>
+      <c r="C43" t="n">
+        <v>326</v>
+      </c>
+      <c r="D43" t="n">
+        <v>56</v>
+      </c>
+      <c r="E43" t="n">
+        <v>270</v>
+      </c>
+      <c r="F43" t="n">
+        <v>75.98214285714286</v>
+      </c>
+      <c r="G43" t="n">
+        <v>420.1964285714286</v>
+      </c>
+      <c r="H43" t="n">
+        <v>40.53703703703704</v>
+      </c>
+      <c r="I43" t="n">
+        <v>222.0407407407407</v>
+      </c>
+      <c r="J43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>306</v>
+      </c>
+      <c r="H44" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="n">
+        <v>85</v>
+      </c>
+      <c r="C45" t="n">
+        <v>48</v>
+      </c>
+      <c r="D45" t="n">
+        <v>24</v>
+      </c>
+      <c r="E45" t="n">
+        <v>24</v>
+      </c>
+      <c r="F45" t="n">
+        <v>26.83333333333333</v>
+      </c>
+      <c r="G45" t="n">
+        <v>145</v>
+      </c>
+      <c r="H45" t="n">
+        <v>24</v>
+      </c>
+      <c r="I45" t="n">
+        <v>131.9583333333333</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="n">
+        <v>35</v>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
+      </c>
+      <c r="E46" t="n">
+        <v>14</v>
+      </c>
+      <c r="F46" t="n">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="G46" t="n">
+        <v>139.3333333333333</v>
+      </c>
+      <c r="H46" t="n">
+        <v>39.85714285714285</v>
+      </c>
+      <c r="I46" t="n">
+        <v>222.8571428571429</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="n">
+        <v>71</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46</v>
+      </c>
+      <c r="D47" t="n">
+        <v>16</v>
+      </c>
+      <c r="E47" t="n">
+        <v>30</v>
+      </c>
+      <c r="F47" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="G47" t="n">
+        <v>128.9375</v>
+      </c>
+      <c r="H47" t="n">
+        <v>17.63333333333333</v>
+      </c>
+      <c r="I47" t="n">
+        <v>96.16666666666667</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="n">
+        <v>180</v>
+      </c>
+      <c r="C48" t="n">
+        <v>108</v>
+      </c>
+      <c r="D48" t="n">
         <v>26</v>
       </c>
-      <c r="F12" t="n">
+      <c r="E48" t="n">
+        <v>82</v>
+      </c>
+      <c r="F48" t="n">
+        <v>41.88461538461539</v>
+      </c>
+      <c r="G48" t="n">
+        <v>240</v>
+      </c>
+      <c r="H48" t="n">
+        <v>32.24390243902439</v>
+      </c>
+      <c r="I48" t="n">
+        <v>178.5853658536585</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="n">
+        <v>21</v>
+      </c>
+      <c r="C49" t="n">
+        <v>13</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6</v>
+      </c>
+      <c r="F49" t="n">
+        <v>29.42857142857143</v>
+      </c>
+      <c r="G49" t="n">
+        <v>174</v>
+      </c>
+      <c r="H49" t="n">
+        <v>50.83333333333334</v>
+      </c>
+      <c r="I49" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="n">
+        <v>317</v>
+      </c>
+      <c r="C50" t="n">
+        <v>184</v>
+      </c>
+      <c r="D50" t="n">
+        <v>26</v>
+      </c>
+      <c r="E50" t="n">
+        <v>158</v>
+      </c>
+      <c r="F50" t="n">
+        <v>57.53846153846154</v>
+      </c>
+      <c r="G50" t="n">
+        <v>337.5769230769231</v>
+      </c>
+      <c r="H50" t="n">
+        <v>38.61392405063291</v>
+      </c>
+      <c r="I50" t="n">
+        <v>227.879746835443</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="n">
+        <v>14</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>20</v>
+      </c>
+      <c r="G51" t="n">
+        <v>110.1666666666667</v>
+      </c>
+      <c r="H51" t="n">
+        <v>15</v>
+      </c>
+      <c r="I51" t="n">
+        <v>78</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="n">
+        <v>262</v>
+      </c>
+      <c r="C52" t="n">
+        <v>182</v>
+      </c>
+      <c r="D52" t="n">
+        <v>29</v>
+      </c>
+      <c r="E52" t="n">
+        <v>153</v>
+      </c>
+      <c r="F52" t="n">
+        <v>28.75862068965517</v>
+      </c>
+      <c r="G52" t="n">
+        <v>169.8275862068965</v>
+      </c>
+      <c r="H52" t="n">
+        <v>32.37908496732026</v>
+      </c>
+      <c r="I52" t="n">
+        <v>188.0457516339869</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="n">
+        <v>92</v>
+      </c>
+      <c r="C53" t="n">
+        <v>61</v>
+      </c>
+      <c r="D53" t="n">
+        <v>20</v>
+      </c>
+      <c r="E53" t="n">
+        <v>41</v>
+      </c>
+      <c r="F53" t="n">
+        <v>66.55</v>
+      </c>
+      <c r="G53" t="n">
+        <v>387.8</v>
+      </c>
+      <c r="H53" t="n">
+        <v>47.19512195121951</v>
+      </c>
+      <c r="I53" t="n">
+        <v>282.1463414634146</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="n">
+        <v>25</v>
+      </c>
+      <c r="C54" t="n">
+        <v>15</v>
+      </c>
+      <c r="D54" t="n">
+        <v>11</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" t="n">
+        <v>19.90909090909091</v>
+      </c>
+      <c r="G54" t="n">
+        <v>104.6363636363636</v>
+      </c>
+      <c r="H54" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>101</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="n">
+        <v>181</v>
+      </c>
+      <c r="C55" t="n">
+        <v>129</v>
+      </c>
+      <c r="D55" t="n">
+        <v>33</v>
+      </c>
+      <c r="E55" t="n">
+        <v>96</v>
+      </c>
+      <c r="F55" t="n">
+        <v>29.84848484848485</v>
+      </c>
+      <c r="G55" t="n">
+        <v>163.2121212121212</v>
+      </c>
+      <c r="H55" t="n">
+        <v>34.73958333333334</v>
+      </c>
+      <c r="I55" t="n">
+        <v>192.8541666666667</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>103.6666666666667</v>
+      </c>
+      <c r="I56" t="n">
+        <v>586</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="n">
+        <v>475</v>
+      </c>
+      <c r="C57" t="n">
+        <v>246</v>
+      </c>
+      <c r="D57" t="n">
+        <v>36</v>
+      </c>
+      <c r="E57" t="n">
+        <v>210</v>
+      </c>
+      <c r="F57" t="n">
+        <v>48.05555555555556</v>
+      </c>
+      <c r="G57" t="n">
+        <v>273.1388888888889</v>
+      </c>
+      <c r="H57" t="n">
+        <v>44.57619047619048</v>
+      </c>
+      <c r="I57" t="n">
+        <v>255.9333333333333</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="n">
+        <v>11</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G58" t="n">
+        <v>60</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="n">
+        <v>109</v>
+      </c>
+      <c r="C59" t="n">
+        <v>95</v>
+      </c>
+      <c r="D59" t="n">
+        <v>28</v>
+      </c>
+      <c r="E59" t="n">
+        <v>67</v>
+      </c>
+      <c r="F59" t="n">
+        <v>55.57142857142857</v>
+      </c>
+      <c r="G59" t="n">
+        <v>293.6071428571428</v>
+      </c>
+      <c r="H59" t="n">
+        <v>36</v>
+      </c>
+      <c r="I59" t="n">
+        <v>199.7611940298507</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="n">
+        <v>95</v>
+      </c>
+      <c r="C60" t="n">
+        <v>71</v>
+      </c>
+      <c r="D60" t="n">
+        <v>28</v>
+      </c>
+      <c r="E60" t="n">
+        <v>43</v>
+      </c>
+      <c r="F60" t="n">
+        <v>54.46428571428572</v>
+      </c>
+      <c r="G60" t="n">
+        <v>299</v>
+      </c>
+      <c r="H60" t="n">
+        <v>31.72093023255814</v>
+      </c>
+      <c r="I60" t="n">
+        <v>169.7441860465116</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="n">
+        <v>28</v>
+      </c>
+      <c r="C61" t="n">
+        <v>28</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="n">
+        <v>18</v>
+      </c>
+      <c r="F61" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>117.9</v>
+      </c>
+      <c r="H61" t="n">
+        <v>19.88888888888889</v>
+      </c>
+      <c r="I61" t="n">
+        <v>108.8888888888889</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="n">
+        <v>182</v>
+      </c>
+      <c r="C62" t="n">
+        <v>158</v>
+      </c>
+      <c r="D62" t="n">
+        <v>72</v>
+      </c>
+      <c r="E62" t="n">
+        <v>86</v>
+      </c>
+      <c r="F62" t="n">
+        <v>47.91666666666666</v>
+      </c>
+      <c r="G62" t="n">
+        <v>259.2638888888889</v>
+      </c>
+      <c r="H62" t="n">
+        <v>20.55813953488372</v>
+      </c>
+      <c r="I62" t="n">
+        <v>118.7209302325581</v>
+      </c>
+      <c r="J62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="n">
+        <v>55</v>
+      </c>
+      <c r="C63" t="n">
+        <v>40</v>
+      </c>
+      <c r="D63" t="n">
+        <v>17</v>
+      </c>
+      <c r="E63" t="n">
+        <v>23</v>
+      </c>
+      <c r="F63" t="n">
+        <v>12.64705882352941</v>
+      </c>
+      <c r="G63" t="n">
+        <v>72.47058823529412</v>
+      </c>
+      <c r="H63" t="n">
+        <v>15.60869565217391</v>
+      </c>
+      <c r="I63" t="n">
+        <v>88.34782608695652</v>
+      </c>
+      <c r="J63" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="n">
+        <v>34</v>
+      </c>
+      <c r="C64" t="n">
+        <v>28</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" t="n">
+        <v>18</v>
+      </c>
+      <c r="F64" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>200.4</v>
+      </c>
+      <c r="H64" t="n">
+        <v>31.94444444444444</v>
+      </c>
+      <c r="I64" t="n">
+        <v>177.7222222222222</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="n">
+        <v>141</v>
+      </c>
+      <c r="C65" t="n">
+        <v>122</v>
+      </c>
+      <c r="D65" t="n">
+        <v>50</v>
+      </c>
+      <c r="E65" t="n">
+        <v>72</v>
+      </c>
+      <c r="F65" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="G65" t="n">
+        <v>289.86</v>
+      </c>
+      <c r="H65" t="n">
+        <v>47.54166666666666</v>
+      </c>
+      <c r="I65" t="n">
+        <v>259.9444444444445</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>56</v>
+      </c>
+      <c r="D66" t="n">
+        <v>27</v>
+      </c>
+      <c r="E66" t="n">
+        <v>29</v>
+      </c>
+      <c r="F66" t="n">
+        <v>29.92592592592593</v>
+      </c>
+      <c r="G66" t="n">
+        <v>159.8888888888889</v>
+      </c>
+      <c r="H66" t="n">
+        <v>26.51724137931035</v>
+      </c>
+      <c r="I66" t="n">
+        <v>138.5862068965517</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="n">
+        <v>51</v>
+      </c>
+      <c r="C67" t="n">
+        <v>48</v>
+      </c>
+      <c r="D67" t="n">
+        <v>18</v>
+      </c>
+      <c r="E67" t="n">
+        <v>30</v>
+      </c>
+      <c r="F67" t="n">
+        <v>31.94444444444444</v>
+      </c>
+      <c r="G67" t="n">
+        <v>166.2777777777778</v>
+      </c>
+      <c r="H67" t="n">
+        <v>23.23333333333333</v>
+      </c>
+      <c r="I67" t="n">
+        <v>127.5666666666667</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="n">
+        <v>145</v>
+      </c>
+      <c r="C68" t="n">
+        <v>99</v>
+      </c>
+      <c r="D68" t="n">
+        <v>58</v>
+      </c>
+      <c r="E68" t="n">
+        <v>41</v>
+      </c>
+      <c r="F68" t="n">
+        <v>31.22413793103448</v>
+      </c>
+      <c r="G68" t="n">
+        <v>167.551724137931</v>
+      </c>
+      <c r="H68" t="n">
+        <v>26.46341463414634</v>
+      </c>
+      <c r="I68" t="n">
+        <v>140.8292682926829</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="n">
+        <v>55</v>
+      </c>
+      <c r="C69" t="n">
+        <v>45</v>
+      </c>
+      <c r="D69" t="n">
+        <v>27</v>
+      </c>
+      <c r="E69" t="n">
+        <v>18</v>
+      </c>
+      <c r="F69" t="n">
+        <v>22.74074074074074</v>
+      </c>
+      <c r="G69" t="n">
+        <v>126</v>
+      </c>
+      <c r="H69" t="n">
+        <v>26.16666666666667</v>
+      </c>
+      <c r="I69" t="n">
+        <v>153.4444444444445</v>
+      </c>
+      <c r="J69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="n">
+        <v>70</v>
+      </c>
+      <c r="C70" t="n">
+        <v>61</v>
+      </c>
+      <c r="D70" t="n">
+        <v>22</v>
+      </c>
+      <c r="E70" t="n">
+        <v>39</v>
+      </c>
+      <c r="F70" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G70" t="n">
+        <v>138.2727272727273</v>
+      </c>
+      <c r="H70" t="n">
+        <v>50</v>
+      </c>
+      <c r="I70" t="n">
+        <v>290.1538461538461</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="n">
+        <v>35</v>
+      </c>
+      <c r="C71" t="n">
+        <v>29</v>
+      </c>
+      <c r="D71" t="n">
+        <v>12</v>
+      </c>
+      <c r="E71" t="n">
+        <v>17</v>
+      </c>
+      <c r="F71" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G71" t="n">
+        <v>123.0833333333333</v>
+      </c>
+      <c r="H71" t="n">
+        <v>14.11764705882353</v>
+      </c>
+      <c r="I71" t="n">
+        <v>78.11764705882354</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="n">
+        <v>44</v>
+      </c>
+      <c r="C72" t="n">
+        <v>39</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6</v>
+      </c>
+      <c r="E72" t="n">
+        <v>33</v>
+      </c>
+      <c r="F72" t="n">
+        <v>42.16666666666666</v>
+      </c>
+      <c r="G72" t="n">
+        <v>226.6666666666667</v>
+      </c>
+      <c r="H72" t="n">
+        <v>50.12121212121212</v>
+      </c>
+      <c r="I72" t="n">
+        <v>262.4545454545454</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G73" t="n">
+        <v>158</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="n">
+        <v>80</v>
+      </c>
+      <c r="C74" t="n">
+        <v>64</v>
+      </c>
+      <c r="D74" t="n">
+        <v>32</v>
+      </c>
+      <c r="E74" t="n">
+        <v>32</v>
+      </c>
+      <c r="F74" t="n">
+        <v>34.5625</v>
+      </c>
+      <c r="G74" t="n">
+        <v>187.96875</v>
+      </c>
+      <c r="H74" t="n">
+        <v>41.53125</v>
+      </c>
+      <c r="I74" t="n">
+        <v>223.4375</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="n">
+        <v>68</v>
+      </c>
+      <c r="C75" t="n">
+        <v>60</v>
+      </c>
+      <c r="D75" t="n">
+        <v>20</v>
+      </c>
+      <c r="E75" t="n">
+        <v>40</v>
+      </c>
+      <c r="F75" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="G75" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="H75" t="n">
+        <v>26.825</v>
+      </c>
+      <c r="I75" t="n">
+        <v>148.675</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="n">
+        <v>89</v>
+      </c>
+      <c r="C76" t="n">
+        <v>73</v>
+      </c>
+      <c r="D76" t="n">
+        <v>35</v>
+      </c>
+      <c r="E76" t="n">
+        <v>38</v>
+      </c>
+      <c r="F76" t="n">
+        <v>41.02857142857143</v>
+      </c>
+      <c r="G76" t="n">
+        <v>236.1714285714286</v>
+      </c>
+      <c r="H76" t="n">
+        <v>38.71052631578947</v>
+      </c>
+      <c r="I76" t="n">
+        <v>213.4736842105263</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="n">
+        <v>50</v>
+      </c>
+      <c r="C77" t="n">
+        <v>41</v>
+      </c>
+      <c r="D77" t="n">
+        <v>25</v>
+      </c>
+      <c r="E77" t="n">
+        <v>16</v>
+      </c>
+      <c r="F77" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="G77" t="n">
+        <v>82.95999999999999</v>
+      </c>
+      <c r="H77" t="n">
+        <v>7.6875</v>
+      </c>
+      <c r="I77" t="n">
+        <v>38.5625</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="n">
+        <v>154</v>
+      </c>
+      <c r="C78" t="n">
+        <v>137</v>
+      </c>
+      <c r="D78" t="n">
+        <v>62</v>
+      </c>
+      <c r="E78" t="n">
+        <v>75</v>
+      </c>
+      <c r="F78" t="n">
+        <v>46.30645161290322</v>
+      </c>
+      <c r="G78" t="n">
+        <v>242.5483870967742</v>
+      </c>
+      <c r="H78" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="I78" t="n">
+        <v>70.21333333333334</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="n">
+        <v>55</v>
+      </c>
+      <c r="C79" t="n">
+        <v>26</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>16</v>
+      </c>
+      <c r="F79" t="n">
+        <v>29</v>
+      </c>
+      <c r="G79" t="n">
+        <v>169.2</v>
+      </c>
+      <c r="H79" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="I79" t="n">
+        <v>247.9375</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="n">
+        <v>604</v>
+      </c>
+      <c r="C80" t="n">
+        <v>440</v>
+      </c>
+      <c r="D80" t="n">
+        <v>45</v>
+      </c>
+      <c r="E80" t="n">
+        <v>395</v>
+      </c>
+      <c r="F80" t="n">
+        <v>73.75555555555556</v>
+      </c>
+      <c r="G80" t="n">
+        <v>406.2444444444445</v>
+      </c>
+      <c r="H80" t="n">
+        <v>39.06582278481012</v>
+      </c>
+      <c r="I80" t="n">
+        <v>212.906329113924</v>
+      </c>
+      <c r="J80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="n">
+        <v>56</v>
+      </c>
+      <c r="C81" t="n">
+        <v>41</v>
+      </c>
+      <c r="D81" t="n">
+        <v>17</v>
+      </c>
+      <c r="E81" t="n">
+        <v>24</v>
+      </c>
+      <c r="F81" t="n">
+        <v>34.35294117647059</v>
+      </c>
+      <c r="G81" t="n">
+        <v>193.9411764705882</v>
+      </c>
+      <c r="H81" t="n">
+        <v>32.04166666666666</v>
+      </c>
+      <c r="I81" t="n">
+        <v>180.0833333333333</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="n">
+        <v>34</v>
+      </c>
+      <c r="C82" t="n">
+        <v>21</v>
+      </c>
+      <c r="D82" t="n">
+        <v>15</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6</v>
+      </c>
+      <c r="F82" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="G82" t="n">
+        <v>112.3333333333333</v>
+      </c>
+      <c r="H82" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I82" t="n">
+        <v>55.83333333333334</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="n">
+        <v>68</v>
+      </c>
+      <c r="C83" t="n">
+        <v>53</v>
+      </c>
+      <c r="D83" t="n">
+        <v>16</v>
+      </c>
+      <c r="E83" t="n">
+        <v>37</v>
+      </c>
+      <c r="F83" t="n">
+        <v>35.9375</v>
+      </c>
+      <c r="G83" t="n">
+        <v>201.8125</v>
+      </c>
+      <c r="H83" t="n">
+        <v>38</v>
+      </c>
+      <c r="I83" t="n">
+        <v>210.7297297297297</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="n">
+        <v>70</v>
+      </c>
+      <c r="C84" t="n">
+        <v>42</v>
+      </c>
+      <c r="D84" t="n">
+        <v>13</v>
+      </c>
+      <c r="E84" t="n">
+        <v>29</v>
+      </c>
+      <c r="F84" t="n">
+        <v>25.46153846153846</v>
+      </c>
+      <c r="G84" t="n">
+        <v>136.0769230769231</v>
+      </c>
+      <c r="H84" t="n">
+        <v>20.06896551724138</v>
+      </c>
+      <c r="I84" t="n">
+        <v>110.448275862069</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="n">
+        <v>75</v>
+      </c>
+      <c r="C85" t="n">
+        <v>72</v>
+      </c>
+      <c r="D85" t="n">
+        <v>17</v>
+      </c>
+      <c r="E85" t="n">
+        <v>55</v>
+      </c>
+      <c r="F85" t="n">
+        <v>32.23529411764706</v>
+      </c>
+      <c r="G85" t="n">
+        <v>180.2352941176471</v>
+      </c>
+      <c r="H85" t="n">
+        <v>32</v>
+      </c>
+      <c r="I85" t="n">
+        <v>175.9272727272727</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" t="n">
+        <v>25</v>
+      </c>
+      <c r="C86" t="n">
+        <v>16</v>
+      </c>
+      <c r="D86" t="n">
+        <v>12</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="G86" t="n">
+        <v>117.0833333333333</v>
+      </c>
+      <c r="H86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I86" t="n">
+        <v>45</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="n">
+        <v>204</v>
+      </c>
+      <c r="C87" t="n">
+        <v>126</v>
+      </c>
+      <c r="D87" t="n">
+        <v>25</v>
+      </c>
+      <c r="E87" t="n">
+        <v>101</v>
+      </c>
+      <c r="F87" t="n">
+        <v>39.56</v>
+      </c>
+      <c r="G87" t="n">
+        <v>219.88</v>
+      </c>
+      <c r="H87" t="n">
+        <v>32.52475247524752</v>
+      </c>
+      <c r="I87" t="n">
+        <v>185.4752475247525</v>
+      </c>
+      <c r="J87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" t="n">
+        <v>270</v>
+      </c>
+      <c r="C88" t="n">
+        <v>224</v>
+      </c>
+      <c r="D88" t="n">
+        <v>38</v>
+      </c>
+      <c r="E88" t="n">
+        <v>186</v>
+      </c>
+      <c r="F88" t="n">
+        <v>52.13157894736842</v>
+      </c>
+      <c r="G88" t="n">
+        <v>317.3157894736842</v>
+      </c>
+      <c r="H88" t="n">
+        <v>36.74731182795699</v>
+      </c>
+      <c r="I88" t="n">
+        <v>211.5376344086021</v>
+      </c>
+      <c r="J88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" t="n">
+        <v>57</v>
+      </c>
+      <c r="C89" t="n">
+        <v>50</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10</v>
+      </c>
+      <c r="E89" t="n">
+        <v>40</v>
+      </c>
+      <c r="F89" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="G89" t="n">
+        <v>324.7</v>
+      </c>
+      <c r="H89" t="n">
+        <v>37</v>
+      </c>
+      <c r="I89" t="n">
+        <v>207.55</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="n">
+        <v>47</v>
+      </c>
+      <c r="C90" t="n">
+        <v>25</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>20</v>
+      </c>
+      <c r="F90" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="G90" t="n">
+        <v>144</v>
+      </c>
+      <c r="H90" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="I90" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" t="n">
+        <v>170</v>
+      </c>
+      <c r="C91" t="n">
+        <v>98</v>
+      </c>
+      <c r="D91" t="n">
+        <v>31</v>
+      </c>
+      <c r="E91" t="n">
+        <v>67</v>
+      </c>
+      <c r="F91" t="n">
+        <v>42.54838709677419</v>
+      </c>
+      <c r="G91" t="n">
+        <v>248.3548387096774</v>
+      </c>
+      <c r="H91" t="n">
+        <v>28.26865671641791</v>
+      </c>
+      <c r="I91" t="n">
+        <v>163.5671641791045</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="n">
+        <v>308</v>
+      </c>
+      <c r="C92" t="n">
+        <v>245</v>
+      </c>
+      <c r="D92" t="n">
+        <v>23</v>
+      </c>
+      <c r="E92" t="n">
+        <v>222</v>
+      </c>
+      <c r="F92" t="n">
+        <v>37.21739130434783</v>
+      </c>
+      <c r="G92" t="n">
+        <v>205.2173913043478</v>
+      </c>
+      <c r="H92" t="n">
+        <v>48.73873873873874</v>
+      </c>
+      <c r="I92" t="n">
+        <v>266.6261261261261</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="n">
+        <v>256</v>
+      </c>
+      <c r="C93" t="n">
+        <v>210</v>
+      </c>
+      <c r="D93" t="n">
+        <v>34</v>
+      </c>
+      <c r="E93" t="n">
+        <v>176</v>
+      </c>
+      <c r="F93" t="n">
+        <v>74.97058823529412</v>
+      </c>
+      <c r="G93" t="n">
+        <v>420.3529411764706</v>
+      </c>
+      <c r="H93" t="n">
+        <v>42.34659090909091</v>
+      </c>
+      <c r="I93" t="n">
+        <v>243.9943181818182</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="n">
+        <v>13</v>
+      </c>
+      <c r="C94" t="n">
+        <v>12</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>125.125</v>
+      </c>
+      <c r="H94" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I94" t="n">
+        <v>65</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="n">
+        <v>24</v>
+      </c>
+      <c r="C95" t="n">
+        <v>16</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>8</v>
+      </c>
+      <c r="F95" t="n">
+        <v>20</v>
+      </c>
+      <c r="G95" t="n">
+        <v>107.375</v>
+      </c>
+      <c r="H95" t="n">
+        <v>44</v>
+      </c>
+      <c r="I95" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="n">
+        <v>20</v>
+      </c>
+      <c r="C96" t="n">
+        <v>14</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>9</v>
+      </c>
+      <c r="F96" t="n">
+        <v>34</v>
+      </c>
+      <c r="G96" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="H96" t="n">
+        <v>15.11111111111111</v>
+      </c>
+      <c r="I96" t="n">
+        <v>84.88888888888889</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="n">
+        <v>187</v>
+      </c>
+      <c r="C97" t="n">
+        <v>104</v>
+      </c>
+      <c r="D97" t="n">
+        <v>33</v>
+      </c>
+      <c r="E97" t="n">
+        <v>71</v>
+      </c>
+      <c r="F97" t="n">
+        <v>124.2424242424242</v>
+      </c>
+      <c r="G97" t="n">
+        <v>688.8484848484849</v>
+      </c>
+      <c r="H97" t="n">
+        <v>54.7887323943662</v>
+      </c>
+      <c r="I97" t="n">
+        <v>301.2112676056338</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>17</v>
+      </c>
+      <c r="G98" t="n">
+        <v>105</v>
+      </c>
+      <c r="H98" t="n">
+        <v>48</v>
+      </c>
+      <c r="I98" t="n">
+        <v>248</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="n">
+        <v>13</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3</v>
+      </c>
+      <c r="F99" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="G99" t="n">
+        <v>103</v>
+      </c>
+      <c r="H99" t="n">
+        <v>49</v>
+      </c>
+      <c r="I99" t="n">
+        <v>279.3333333333333</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="n">
+        <v>51</v>
+      </c>
+      <c r="C100" t="n">
+        <v>39</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7</v>
+      </c>
+      <c r="E100" t="n">
+        <v>32</v>
+      </c>
+      <c r="F100" t="n">
+        <v>18.71428571428572</v>
+      </c>
+      <c r="G100" t="n">
+        <v>114.4285714285714</v>
+      </c>
+      <c r="H100" t="n">
+        <v>43.84375</v>
+      </c>
+      <c r="I100" t="n">
+        <v>253.09375</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="n">
+        <v>8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G101" t="n">
+        <v>84</v>
+      </c>
+      <c r="H101" t="n">
+        <v>40</v>
+      </c>
+      <c r="I101" t="n">
+        <v>190</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" t="n">
+        <v>20</v>
+      </c>
+      <c r="C102" t="n">
+        <v>14</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>6</v>
+      </c>
+      <c r="F102" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="G102" t="n">
+        <v>132.375</v>
+      </c>
+      <c r="H102" t="n">
+        <v>25.16666666666667</v>
+      </c>
+      <c r="I102" t="n">
+        <v>143</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" t="n">
+        <v>11</v>
+      </c>
+      <c r="C103" t="n">
+        <v>7</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>28.71428571428572</v>
+      </c>
+      <c r="G103" t="n">
+        <v>156.4285714285714</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" t="n">
+        <v>28</v>
+      </c>
+      <c r="C104" t="n">
+        <v>17</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3</v>
+      </c>
+      <c r="E104" t="n">
+        <v>14</v>
+      </c>
+      <c r="F104" t="n">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="G104" t="n">
+        <v>270.3333333333333</v>
+      </c>
+      <c r="H104" t="n">
+        <v>39.28571428571428</v>
+      </c>
+      <c r="I104" t="n">
+        <v>208.8571428571429</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="n">
+        <v>20</v>
+      </c>
+      <c r="C105" t="n">
+        <v>12</v>
+      </c>
+      <c r="D105" t="n">
+        <v>8</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>54.125</v>
+      </c>
+      <c r="G105" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="H105" t="n">
+        <v>46</v>
+      </c>
+      <c r="I105" t="n">
+        <v>261.25</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="n">
+        <v>50</v>
+      </c>
+      <c r="C106" t="n">
+        <v>32</v>
+      </c>
+      <c r="D106" t="n">
+        <v>13</v>
+      </c>
+      <c r="E106" t="n">
+        <v>19</v>
+      </c>
+      <c r="F106" t="n">
+        <v>66.61538461538461</v>
+      </c>
+      <c r="G106" t="n">
+        <v>360.8461538461539</v>
+      </c>
+      <c r="H106" t="n">
+        <v>64.05263157894737</v>
+      </c>
+      <c r="I106" t="n">
+        <v>360</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" t="n">
+        <v>141</v>
+      </c>
+      <c r="C107" t="n">
+        <v>75</v>
+      </c>
+      <c r="D107" t="n">
+        <v>32</v>
+      </c>
+      <c r="E107" t="n">
+        <v>43</v>
+      </c>
+      <c r="F107" t="n">
+        <v>81.375</v>
+      </c>
+      <c r="G107" t="n">
+        <v>447.46875</v>
+      </c>
+      <c r="H107" t="n">
+        <v>42.72093023255814</v>
+      </c>
+      <c r="I107" t="n">
+        <v>242.7209302325581</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" t="n">
+        <v>41</v>
+      </c>
+      <c r="C108" t="n">
+        <v>27</v>
+      </c>
+      <c r="D108" t="n">
+        <v>10</v>
+      </c>
+      <c r="E108" t="n">
+        <v>17</v>
+      </c>
+      <c r="F108" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="G108" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="H108" t="n">
+        <v>22.64705882352941</v>
+      </c>
+      <c r="I108" t="n">
+        <v>117.0588235294118</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" t="n">
+        <v>32</v>
+      </c>
+      <c r="C109" t="n">
+        <v>27</v>
+      </c>
+      <c r="D109" t="n">
+        <v>13</v>
+      </c>
+      <c r="E109" t="n">
+        <v>14</v>
+      </c>
+      <c r="F109" t="n">
+        <v>27.23076923076923</v>
+      </c>
+      <c r="G109" t="n">
+        <v>138.8461538461538</v>
+      </c>
+      <c r="H109" t="n">
+        <v>38.78571428571428</v>
+      </c>
+      <c r="I109" t="n">
+        <v>201.9285714285714</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="n">
+        <v>385</v>
+      </c>
+      <c r="C110" t="n">
+        <v>169</v>
+      </c>
+      <c r="D110" t="n">
+        <v>58</v>
+      </c>
+      <c r="E110" t="n">
+        <v>111</v>
+      </c>
+      <c r="F110" t="n">
+        <v>52.81034482758621</v>
+      </c>
+      <c r="G110" t="n">
+        <v>287.1724137931034</v>
+      </c>
+      <c r="H110" t="n">
+        <v>52.32432432432432</v>
+      </c>
+      <c r="I110" t="n">
+        <v>284.8108108108108</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" t="n">
+        <v>27</v>
+      </c>
+      <c r="C111" t="n">
+        <v>22</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7</v>
+      </c>
+      <c r="E111" t="n">
+        <v>15</v>
+      </c>
+      <c r="F111" t="n">
+        <v>25</v>
+      </c>
+      <c r="G111" t="n">
+        <v>128.5714285714286</v>
+      </c>
+      <c r="H111" t="n">
+        <v>35.53333333333333</v>
+      </c>
+      <c r="I111" t="n">
+        <v>196.0666666666667</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" t="n">
+        <v>25</v>
+      </c>
+      <c r="C112" t="n">
+        <v>13</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>6</v>
+      </c>
+      <c r="F112" t="n">
+        <v>77.14285714285714</v>
+      </c>
+      <c r="G112" t="n">
+        <v>424</v>
+      </c>
+      <c r="H112" t="n">
+        <v>30.16666666666667</v>
+      </c>
+      <c r="I112" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" t="n">
+        <v>57</v>
+      </c>
+      <c r="C113" t="n">
+        <v>38</v>
+      </c>
+      <c r="D113" t="n">
+        <v>12</v>
+      </c>
+      <c r="E113" t="n">
+        <v>26</v>
+      </c>
+      <c r="F113" t="n">
+        <v>34.16666666666666</v>
+      </c>
+      <c r="G113" t="n">
+        <v>178.0833333333333</v>
+      </c>
+      <c r="H113" t="n">
+        <v>33.03846153846154</v>
+      </c>
+      <c r="I113" t="n">
+        <v>176.6153846153846</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" t="n">
+        <v>67</v>
+      </c>
+      <c r="C114" t="n">
+        <v>48</v>
+      </c>
+      <c r="D114" t="n">
+        <v>19</v>
+      </c>
+      <c r="E114" t="n">
+        <v>29</v>
+      </c>
+      <c r="F114" t="n">
+        <v>26.78947368421053</v>
+      </c>
+      <c r="G114" t="n">
+        <v>150.4736842105263</v>
+      </c>
+      <c r="H114" t="n">
+        <v>41.24137931034483</v>
+      </c>
+      <c r="I114" t="n">
+        <v>230.2413793103448</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" t="n">
+        <v>29</v>
+      </c>
+      <c r="C115" t="n">
+        <v>10</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>20</v>
+      </c>
+      <c r="G115" t="n">
+        <v>119</v>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+      <c r="I115" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" t="n">
+        <v>35</v>
+      </c>
+      <c r="C116" t="n">
+        <v>33</v>
+      </c>
+      <c r="D116" t="n">
+        <v>12</v>
+      </c>
+      <c r="E116" t="n">
+        <v>21</v>
+      </c>
+      <c r="F116" t="n">
+        <v>41.08333333333334</v>
+      </c>
+      <c r="G116" t="n">
+        <v>227.5833333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="I116" t="n">
+        <v>76.19047619047619</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" t="n">
+        <v>53</v>
+      </c>
+      <c r="C117" t="n">
+        <v>50</v>
+      </c>
+      <c r="D117" t="n">
+        <v>24</v>
+      </c>
+      <c r="E117" t="n">
+        <v>26</v>
+      </c>
+      <c r="F117" t="n">
+        <v>38.29166666666666</v>
+      </c>
+      <c r="G117" t="n">
+        <v>210.7916666666667</v>
+      </c>
+      <c r="H117" t="n">
+        <v>56.96153846153846</v>
+      </c>
+      <c r="I117" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>410</v>
+      </c>
+      <c r="C118" t="n">
+        <v>236</v>
+      </c>
+      <c r="D118" t="n">
+        <v>63</v>
+      </c>
+      <c r="E118" t="n">
+        <v>173</v>
+      </c>
+      <c r="F118" t="n">
+        <v>34.74603174603175</v>
+      </c>
+      <c r="G118" t="n">
+        <v>204.1111111111111</v>
+      </c>
+      <c r="H118" t="n">
+        <v>35.10982658959538</v>
+      </c>
+      <c r="I118" t="n">
+        <v>201.1560693641619</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>31</v>
+      </c>
+      <c r="C119" t="n">
+        <v>27</v>
+      </c>
+      <c r="D119" t="n">
+        <v>15</v>
+      </c>
+      <c r="E119" t="n">
+        <v>12</v>
+      </c>
+      <c r="F119" t="n">
+        <v>23.13333333333333</v>
+      </c>
+      <c r="G119" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="H119" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="I119" t="n">
+        <v>89.08333333333333</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>168</v>
+      </c>
+      <c r="C120" t="n">
+        <v>57</v>
+      </c>
+      <c r="D120" t="n">
+        <v>15</v>
+      </c>
+      <c r="E120" t="n">
+        <v>42</v>
+      </c>
+      <c r="F120" t="n">
+        <v>39.26666666666667</v>
+      </c>
+      <c r="G120" t="n">
+        <v>235.5333333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>17.38095238095238</v>
+      </c>
+      <c r="I120" t="n">
+        <v>94.69047619047619</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>25</v>
+      </c>
+      <c r="C121" t="n">
+        <v>18</v>
+      </c>
+      <c r="D121" t="n">
+        <v>12</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6</v>
+      </c>
+      <c r="F121" t="n">
+        <v>31.41666666666667</v>
+      </c>
+      <c r="G121" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="H121" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="I121" t="n">
+        <v>133.3333333333333</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>311</v>
+      </c>
+      <c r="C122" t="n">
+        <v>217</v>
+      </c>
+      <c r="D122" t="n">
+        <v>25</v>
+      </c>
+      <c r="E122" t="n">
+        <v>192</v>
+      </c>
+      <c r="F122" t="n">
+        <v>56.68</v>
+      </c>
+      <c r="G122" t="n">
+        <v>326.12</v>
+      </c>
+      <c r="H122" t="n">
+        <v>55.03125</v>
+      </c>
+      <c r="I122" t="n">
+        <v>321.234375</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>56</v>
+      </c>
+      <c r="C123" t="n">
+        <v>47</v>
+      </c>
+      <c r="D123" t="n">
+        <v>19</v>
+      </c>
+      <c r="E123" t="n">
+        <v>28</v>
+      </c>
+      <c r="F123" t="n">
+        <v>63</v>
+      </c>
+      <c r="G123" t="n">
+        <v>363.6842105263158</v>
+      </c>
+      <c r="H123" t="n">
+        <v>45.03571428571428</v>
+      </c>
+      <c r="I123" t="n">
+        <v>252.6785714285714</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>62</v>
+      </c>
+      <c r="C124" t="n">
+        <v>53</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6</v>
+      </c>
+      <c r="E124" t="n">
+        <v>47</v>
+      </c>
+      <c r="F124" t="n">
+        <v>53.83333333333334</v>
+      </c>
+      <c r="G124" t="n">
+        <v>304.6666666666667</v>
+      </c>
+      <c r="H124" t="n">
+        <v>48.3404255319149</v>
+      </c>
+      <c r="I124" t="n">
+        <v>270.3617021276596</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>16</v>
+      </c>
+      <c r="C125" t="n">
+        <v>14</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>7</v>
+      </c>
+      <c r="F125" t="n">
+        <v>47.71428571428572</v>
+      </c>
+      <c r="G125" t="n">
+        <v>276</v>
+      </c>
+      <c r="H125" t="n">
+        <v>29.71428571428572</v>
+      </c>
+      <c r="I125" t="n">
+        <v>160</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>80</v>
+      </c>
+      <c r="C126" t="n">
+        <v>76</v>
+      </c>
+      <c r="D126" t="n">
+        <v>23</v>
+      </c>
+      <c r="E126" t="n">
+        <v>53</v>
+      </c>
+      <c r="F126" t="n">
+        <v>35.21739130434783</v>
+      </c>
+      <c r="G126" t="n">
+        <v>201.6521739130435</v>
+      </c>
+      <c r="H126" t="n">
+        <v>70.75471698113208</v>
+      </c>
+      <c r="I126" t="n">
+        <v>399.3584905660377</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>174</v>
+      </c>
+      <c r="C127" t="n">
+        <v>164</v>
+      </c>
+      <c r="D127" t="n">
+        <v>18</v>
+      </c>
+      <c r="E127" t="n">
+        <v>146</v>
+      </c>
+      <c r="F127" t="n">
+        <v>76.55555555555556</v>
+      </c>
+      <c r="G127" t="n">
+        <v>443.8333333333333</v>
+      </c>
+      <c r="H127" t="n">
+        <v>74.05479452054794</v>
+      </c>
+      <c r="I127" t="n">
+        <v>417.0342465753425</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>26</v>
+      </c>
+      <c r="C128" t="n">
+        <v>22</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>13</v>
+      </c>
+      <c r="F128" t="n">
+        <v>34</v>
+      </c>
+      <c r="G128" t="n">
+        <v>204.8888888888889</v>
+      </c>
+      <c r="H128" t="n">
+        <v>39.46153846153846</v>
+      </c>
+      <c r="I128" t="n">
+        <v>229.3076923076923</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>27.33333333333333</v>
+      </c>
+      <c r="G129" t="n">
+        <v>154.3333333333333</v>
+      </c>
+      <c r="H129" t="n">
+        <v>31.66666666666667</v>
+      </c>
+      <c r="I129" t="n">
+        <v>182.6666666666667</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>14</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12</v>
+      </c>
+      <c r="D130" t="n">
+        <v>8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G130" t="n">
+        <v>144.125</v>
+      </c>
+      <c r="H130" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="I130" t="n">
+        <v>235</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>61</v>
+      </c>
+      <c r="C131" t="n">
+        <v>47</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>38</v>
+      </c>
+      <c r="F131" t="n">
+        <v>59.88888888888889</v>
+      </c>
+      <c r="G131" t="n">
+        <v>335.1111111111111</v>
+      </c>
+      <c r="H131" t="n">
+        <v>54.55263157894737</v>
+      </c>
+      <c r="I131" t="n">
+        <v>310.8684210526316</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10.33333333333333</v>
+      </c>
+      <c r="G132" t="n">
+        <v>59.66666666666666</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>20</v>
+      </c>
+      <c r="C133" t="n">
+        <v>17</v>
+      </c>
+      <c r="D133" t="n">
+        <v>13</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>46.84615384615385</v>
+      </c>
+      <c r="G133" t="n">
+        <v>276.6153846153846</v>
+      </c>
+      <c r="H133" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="I133" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" t="n">
+        <v>34</v>
+      </c>
+      <c r="C134" t="n">
+        <v>24</v>
+      </c>
+      <c r="D134" t="n">
+        <v>7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>17</v>
+      </c>
+      <c r="F134" t="n">
+        <v>63</v>
+      </c>
+      <c r="G134" t="n">
+        <v>358.4285714285714</v>
+      </c>
+      <c r="H134" t="n">
+        <v>42.29411764705883</v>
+      </c>
+      <c r="I134" t="n">
+        <v>237.8823529411765</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" t="n">
+        <v>45</v>
+      </c>
+      <c r="C135" t="n">
+        <v>37</v>
+      </c>
+      <c r="D135" t="n">
+        <v>11</v>
+      </c>
+      <c r="E135" t="n">
+        <v>26</v>
+      </c>
+      <c r="F135" t="n">
+        <v>40.36363636363637</v>
+      </c>
+      <c r="G135" t="n">
+        <v>233.3636363636364</v>
+      </c>
+      <c r="H135" t="n">
+        <v>36.19230769230769</v>
+      </c>
+      <c r="I135" t="n">
+        <v>208.1923076923077</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" t="n">
+        <v>208</v>
+      </c>
+      <c r="C136" t="n">
+        <v>144</v>
+      </c>
+      <c r="D136" t="n">
+        <v>21</v>
+      </c>
+      <c r="E136" t="n">
+        <v>123</v>
+      </c>
+      <c r="F136" t="n">
+        <v>83.19047619047619</v>
+      </c>
+      <c r="G136" t="n">
+        <v>454.8095238095238</v>
+      </c>
+      <c r="H136" t="n">
+        <v>39.3739837398374</v>
+      </c>
+      <c r="I136" t="n">
+        <v>222.0813008130081</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" t="n">
+        <v>61</v>
+      </c>
+      <c r="C137" t="n">
+        <v>50</v>
+      </c>
+      <c r="D137" t="n">
+        <v>11</v>
+      </c>
+      <c r="E137" t="n">
+        <v>39</v>
+      </c>
+      <c r="F137" t="n">
+        <v>46.36363636363637</v>
+      </c>
+      <c r="G137" t="n">
+        <v>261.1818181818182</v>
+      </c>
+      <c r="H137" t="n">
+        <v>33.56410256410256</v>
+      </c>
+      <c r="I137" t="n">
+        <v>188.948717948718</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" t="n">
+        <v>33</v>
+      </c>
+      <c r="C138" t="n">
+        <v>25</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>17</v>
+      </c>
+      <c r="F138" t="n">
+        <v>41.625</v>
+      </c>
+      <c r="G138" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="H138" t="n">
+        <v>44.47058823529412</v>
+      </c>
+      <c r="I138" t="n">
+        <v>243.5882352941177</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139" t="n">
+        <v>33</v>
+      </c>
+      <c r="C139" t="n">
+        <v>31</v>
+      </c>
+      <c r="D139" t="n">
+        <v>13</v>
+      </c>
+      <c r="E139" t="n">
+        <v>18</v>
+      </c>
+      <c r="F139" t="n">
+        <v>22.92307692307692</v>
+      </c>
+      <c r="G139" t="n">
+        <v>126.6153846153846</v>
+      </c>
+      <c r="H139" t="n">
+        <v>14.44444444444444</v>
+      </c>
+      <c r="I139" t="n">
+        <v>80.94444444444444</v>
+      </c>
+      <c r="J139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140" t="n">
+        <v>111</v>
+      </c>
+      <c r="C140" t="n">
+        <v>92</v>
+      </c>
+      <c r="D140" t="n">
+        <v>16</v>
+      </c>
+      <c r="E140" t="n">
+        <v>76</v>
+      </c>
+      <c r="F140" t="n">
+        <v>50</v>
+      </c>
+      <c r="G140" t="n">
+        <v>270.8125</v>
+      </c>
+      <c r="H140" t="n">
+        <v>30.17105263157895</v>
+      </c>
+      <c r="I140" t="n">
+        <v>163.171052631579</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141" t="n">
+        <v>72</v>
+      </c>
+      <c r="C141" t="n">
+        <v>59</v>
+      </c>
+      <c r="D141" t="n">
+        <v>22</v>
+      </c>
+      <c r="E141" t="n">
+        <v>37</v>
+      </c>
+      <c r="F141" t="n">
+        <v>38.90909090909091</v>
+      </c>
+      <c r="G141" t="n">
+        <v>219.0454545454545</v>
+      </c>
+      <c r="H141" t="n">
+        <v>33.32432432432432</v>
+      </c>
+      <c r="I141" t="n">
+        <v>184.1081081081081</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142" t="n">
+        <v>41</v>
+      </c>
+      <c r="C142" t="n">
+        <v>34</v>
+      </c>
+      <c r="D142" t="n">
+        <v>8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>26</v>
+      </c>
+      <c r="F142" t="n">
+        <v>25.375</v>
+      </c>
+      <c r="G142" t="n">
+        <v>140.75</v>
+      </c>
+      <c r="H142" t="n">
+        <v>30.57692307692308</v>
+      </c>
+      <c r="I142" t="n">
+        <v>175.8846153846154</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" t="n">
+        <v>43</v>
+      </c>
+      <c r="C143" t="n">
+        <v>37</v>
+      </c>
+      <c r="D143" t="n">
+        <v>11</v>
+      </c>
+      <c r="E143" t="n">
+        <v>26</v>
+      </c>
+      <c r="F143" t="n">
         <v>78.27272727272727</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G143" t="n">
         <v>509.2727272727273</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H143" t="n">
         <v>68.80769230769231</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I143" t="n">
         <v>401.4615384615385</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J143" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" t="n">
+        <v>80</v>
+      </c>
+      <c r="C144" t="n">
+        <v>72</v>
+      </c>
+      <c r="D144" t="n">
+        <v>21</v>
+      </c>
+      <c r="E144" t="n">
+        <v>51</v>
+      </c>
+      <c r="F144" t="n">
+        <v>23.95238095238095</v>
+      </c>
+      <c r="G144" t="n">
+        <v>138.7142857142857</v>
+      </c>
+      <c r="H144" t="n">
+        <v>24.7843137254902</v>
+      </c>
+      <c r="I144" t="n">
+        <v>136</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" t="n">
+        <v>13</v>
+      </c>
+      <c r="C145" t="n">
+        <v>13</v>
+      </c>
+      <c r="D145" t="n">
+        <v>7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6</v>
+      </c>
+      <c r="F145" t="n">
+        <v>87.14285714285714</v>
+      </c>
+      <c r="G145" t="n">
+        <v>472.8571428571428</v>
+      </c>
+      <c r="H145" t="n">
+        <v>27.16666666666667</v>
+      </c>
+      <c r="I145" t="n">
+        <v>148.3333333333333</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" t="n">
+        <v>67</v>
+      </c>
+      <c r="C146" t="n">
+        <v>44</v>
+      </c>
+      <c r="D146" t="n">
+        <v>21</v>
+      </c>
+      <c r="E146" t="n">
+        <v>23</v>
+      </c>
+      <c r="F146" t="n">
+        <v>32.23809523809524</v>
+      </c>
+      <c r="G146" t="n">
+        <v>193.7142857142857</v>
+      </c>
+      <c r="H146" t="n">
+        <v>72.39130434782609</v>
+      </c>
+      <c r="I146" t="n">
+        <v>413.9130434782609</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" t="n">
+        <v>31</v>
+      </c>
+      <c r="C147" t="n">
+        <v>28</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12</v>
+      </c>
+      <c r="E147" t="n">
+        <v>16</v>
+      </c>
+      <c r="F147" t="n">
+        <v>39.83333333333334</v>
+      </c>
+      <c r="G147" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="H147" t="n">
+        <v>18.6875</v>
+      </c>
+      <c r="I147" t="n">
+        <v>98.9375</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148" t="n">
+        <v>77</v>
+      </c>
+      <c r="C148" t="n">
+        <v>43</v>
+      </c>
+      <c r="D148" t="n">
+        <v>16</v>
+      </c>
+      <c r="E148" t="n">
+        <v>27</v>
+      </c>
+      <c r="F148" t="n">
+        <v>72.0625</v>
+      </c>
+      <c r="G148" t="n">
+        <v>383.125</v>
+      </c>
+      <c r="H148" t="n">
+        <v>48.62962962962963</v>
+      </c>
+      <c r="I148" t="n">
+        <v>267.5185185185185</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" t="n">
+        <v>122</v>
+      </c>
+      <c r="C149" t="n">
+        <v>91</v>
+      </c>
+      <c r="D149" t="n">
+        <v>17</v>
+      </c>
+      <c r="E149" t="n">
+        <v>74</v>
+      </c>
+      <c r="F149" t="n">
+        <v>42.35294117647059</v>
+      </c>
+      <c r="G149" t="n">
+        <v>228.1764705882353</v>
+      </c>
+      <c r="H149" t="n">
+        <v>30.2027027027027</v>
+      </c>
+      <c r="I149" t="n">
+        <v>171.8918918918919</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" t="n">
+        <v>83</v>
+      </c>
+      <c r="C150" t="n">
+        <v>42</v>
+      </c>
+      <c r="D150" t="n">
+        <v>20</v>
+      </c>
+      <c r="E150" t="n">
+        <v>22</v>
+      </c>
+      <c r="F150" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G150" t="n">
+        <v>128.45</v>
+      </c>
+      <c r="H150" t="n">
+        <v>25.95454545454545</v>
+      </c>
+      <c r="I150" t="n">
+        <v>138.9545454545455</v>
+      </c>
+      <c r="J150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" t="n">
+        <v>134</v>
+      </c>
+      <c r="C151" t="n">
+        <v>105</v>
+      </c>
+      <c r="D151" t="n">
+        <v>20</v>
+      </c>
+      <c r="E151" t="n">
+        <v>85</v>
+      </c>
+      <c r="F151" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G151" t="n">
+        <v>218.25</v>
+      </c>
+      <c r="H151" t="n">
+        <v>37.96470588235294</v>
+      </c>
+      <c r="I151" t="n">
+        <v>213.2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" t="n">
+        <v>51</v>
+      </c>
+      <c r="C152" t="n">
+        <v>40</v>
+      </c>
+      <c r="D152" t="n">
+        <v>13</v>
+      </c>
+      <c r="E152" t="n">
+        <v>27</v>
+      </c>
+      <c r="F152" t="n">
+        <v>39.69230769230769</v>
+      </c>
+      <c r="G152" t="n">
+        <v>231.4615384615385</v>
+      </c>
+      <c r="H152" t="n">
+        <v>21.37037037037037</v>
+      </c>
+      <c r="I152" t="n">
+        <v>117.5925925925926</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" t="n">
+        <v>39</v>
+      </c>
+      <c r="C153" t="n">
+        <v>29</v>
+      </c>
+      <c r="D153" t="n">
+        <v>16</v>
+      </c>
+      <c r="E153" t="n">
+        <v>13</v>
+      </c>
+      <c r="F153" t="n">
+        <v>23.125</v>
+      </c>
+      <c r="G153" t="n">
+        <v>121.5625</v>
+      </c>
+      <c r="H153" t="n">
+        <v>9.461538461538462</v>
+      </c>
+      <c r="I153" t="n">
+        <v>49.53846153846154</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" t="n">
+        <v>42</v>
+      </c>
+      <c r="C154" t="n">
+        <v>29</v>
+      </c>
+      <c r="D154" t="n">
+        <v>13</v>
+      </c>
+      <c r="E154" t="n">
+        <v>16</v>
+      </c>
+      <c r="F154" t="n">
+        <v>59.84615384615385</v>
+      </c>
+      <c r="G154" t="n">
+        <v>356.2307692307692</v>
+      </c>
+      <c r="H154" t="n">
+        <v>60.875</v>
+      </c>
+      <c r="I154" t="n">
+        <v>362.875</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" t="n">
+        <v>17</v>
+      </c>
+      <c r="C155" t="n">
+        <v>12</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>56.88888888888889</v>
+      </c>
+      <c r="G155" t="n">
+        <v>317.7777777777778</v>
+      </c>
+      <c r="H155" t="n">
+        <v>36</v>
+      </c>
+      <c r="I155" t="n">
+        <v>201.3333333333333</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" t="n">
+        <v>83</v>
+      </c>
+      <c r="C156" t="n">
+        <v>71</v>
+      </c>
+      <c r="D156" t="n">
+        <v>18</v>
+      </c>
+      <c r="E156" t="n">
+        <v>53</v>
+      </c>
+      <c r="F156" t="n">
+        <v>45.27777777777778</v>
+      </c>
+      <c r="G156" t="n">
+        <v>255.4444444444445</v>
+      </c>
+      <c r="H156" t="n">
+        <v>21.54716981132075</v>
+      </c>
+      <c r="I156" t="n">
+        <v>113.188679245283</v>
+      </c>
+      <c r="J156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" t="n">
+        <v>271</v>
+      </c>
+      <c r="C157" t="n">
+        <v>204</v>
+      </c>
+      <c r="D157" t="n">
+        <v>44</v>
+      </c>
+      <c r="E157" t="n">
+        <v>160</v>
+      </c>
+      <c r="F157" t="n">
+        <v>112.0454545454545</v>
+      </c>
+      <c r="G157" t="n">
+        <v>641.7272727272727</v>
+      </c>
+      <c r="H157" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="I157" t="n">
+        <v>347.3</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158" t="n">
+        <v>14</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G158" t="n">
+        <v>242.8333333333333</v>
+      </c>
+      <c r="H158" t="n">
+        <v>10.33333333333333</v>
+      </c>
+      <c r="I158" t="n">
+        <v>56.66666666666666</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -863,6 +5964,152 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A10" r:id="rId9"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A11" r:id="rId10"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A33" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A34" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A35" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A36" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A38" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A39" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A40" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A41" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A42" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A43" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A44" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A45" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A46" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A47" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A48" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A49" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A50" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A51" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A52" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A53" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A54" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A55" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A56" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A57" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A58" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A59" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A60" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A61" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A62" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A63" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A64" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A65" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A66" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A67" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A68" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A69" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A70" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A71" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A72" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A73" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A74" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A75" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A76" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A77" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A78" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A79" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A80" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A81" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A82" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A83" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A84" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A85" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A86" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A87" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A88" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A89" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A90" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A91" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A92" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A93" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A94" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A95" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A96" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A97" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A98" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A99" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A100" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A101" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A102" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A103" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A104" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A105" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A106" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A107" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A108" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A109" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A110" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A111" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A112" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A113" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A114" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A115" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A116" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A117" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A118" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A119" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A120" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A121" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A122" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A123" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A124" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A125" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A126" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A127" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A128" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A129" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A130" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A131" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A132" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A133" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A134" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A135" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A136" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A137" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A138" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A139" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A140" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A141" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A142" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A143" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A144" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A145" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A146" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A147" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A148" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A149" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A150" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A151" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A152" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A153" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A154" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A155" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A156" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A157" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A158" r:id="rId157"/>
   </hyperlinks>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>

--- a/KinjaData.xlsx
+++ b/KinjaData.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Article Link</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>http://itheedread.jezebel.com/1707231668</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com/1798447330</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com/1798505721</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com/1798517837</t>
   </si>
 </sst>
 </file>
@@ -111,10 +120,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="1">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -414,12 +420,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,9 +509,126 @@
         <v>35</v>
       </c>
     </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="n">
+        <v>364</v>
+      </c>
+      <c r="C3" t="n">
+        <v>283</v>
+      </c>
+      <c r="D3" t="n">
+        <v>66</v>
+      </c>
+      <c r="E3" t="n">
+        <v>217</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.439393939393939</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54.43939393939394</v>
+      </c>
+      <c r="H3" t="n">
+        <v>303.0454545454546</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.889400921658986</v>
+      </c>
+      <c r="J3" t="n">
+        <v>42.66820276497696</v>
+      </c>
+      <c r="K3" t="n">
+        <v>235.9723502304147</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="n">
+        <v>289</v>
+      </c>
+      <c r="C4" t="n">
+        <v>229</v>
+      </c>
+      <c r="D4" t="n">
+        <v>63</v>
+      </c>
+      <c r="E4" t="n">
+        <v>166</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="G4" t="n">
+        <v>82.73015873015873</v>
+      </c>
+      <c r="H4" t="n">
+        <v>467.5873015873016</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.801204819277109</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62.47590361445783</v>
+      </c>
+      <c r="K4" t="n">
+        <v>352.0602409638554</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>84</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.294117647058823</v>
+      </c>
+      <c r="G5" t="n">
+        <v>23</v>
+      </c>
+      <c r="H5" t="n">
+        <v>130.5294117647059</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.238805970149254</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25.71641791044776</v>
+      </c>
+      <c r="K5" t="n">
+        <v>142.0298507462687</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
